--- a/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,27 +609,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>29,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -647,22 +647,22 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -732,22 +732,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 42,78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 74,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,35%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 14,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,43; 17,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 17,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; 20,97</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -887,27 +887,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-2,85; 19,39</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,37</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 24,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,14</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; 16,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 30,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 14,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 21,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 45,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 16,79</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 6,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 11,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 6,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 14,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 12,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,27</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,38%</t>
         </is>
       </c>
     </row>
@@ -647,34 +647,34 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 33,75</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>0,0; 16,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 50,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>-2,35%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 14,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 17,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,78</t>
+          <t>-13,43; 17,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,87; 17,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,76</t>
+          <t>-13,71; 20,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 14,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,67</t>
+          <t>-2,85; 19,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 17,37</t>
+          <t>0,0; 27,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 17,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,45</t>
+          <t>-2,86; 24,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 20,97</t>
+          <t>0,0; 38,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>12,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; 16,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 19,39</t>
+          <t>1,72; 30,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,37</t>
+          <t>-5,35; 14,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 21,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 24,74</t>
+          <t>1,89; 45,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,14</t>
+          <t>-5,36; 16,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,57%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 16,47</t>
+          <t>-5,96; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 30,96</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,1</t>
+          <t>-2,17; 11,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 21,16</t>
+          <t>-6,12; 6,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 45,41</t>
+          <t>1,94; 14,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 16,79</t>
+          <t>-2,2; 12,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 6,07</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 12,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 11,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 6,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 14,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 12,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Habitat-trans_bre.xlsx
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,48</t>
+          <t>0,0; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,75</t>
+          <t>0,0; 33,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,93</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,94</t>
+          <t>0,0; 50,16</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 14,54</t>
+          <t>-11,17; 14,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,67</t>
+          <t>0,0; 15,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 17,37</t>
+          <t>-12,02; 17,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 17,4</t>
+          <t>-11,86; 16,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,45</t>
+          <t>0,0; 18,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 20,97</t>
+          <t>-12,74; 21,44</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 19,39</t>
+          <t>-5,17; 17,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,37</t>
+          <t>0,0; 28,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 24,74</t>
+          <t>-5,3; 20,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,14</t>
+          <t>0,0; 39,18</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 16,47</t>
+          <t>-16,02; 16,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 30,96</t>
+          <t>1,1; 32,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,1</t>
+          <t>-5,43; 13,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 21,16</t>
+          <t>-16,97; 19,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 45,41</t>
+          <t>1,38; 49,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 16,79</t>
+          <t>-5,43; 16,49</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,07</t>
+          <t>-6,12; 5,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,5</t>
+          <t>2,12; 12,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 11,0</t>
+          <t>-2,29; 11,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,52</t>
+          <t>-6,2; 6,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 14,53</t>
+          <t>2,21; 14,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 12,58</t>
+          <t>-2,28; 13,39</t>
         </is>
       </c>
     </row>
